--- a/SSMShow/target/SSMShow/files/导入产品信息.xlsx
+++ b/SSMShow/target/SSMShow/files/导入产品信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\one\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{06751D25-8B33-49FB-B6E0-A178625BD89E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FADBC1D0-0C8B-4D5F-8E4A-EBE89C52CC9E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" xr2:uid="{AED3AD68-90C3-4286-A485-4B9413ADE477}"/>
   </bookViews>
@@ -57,31 +57,31 @@
     <t>7.jpg</t>
   </si>
   <si>
-    <t>inG7 中原G7三合一浓醇咖啡固体饮料1200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in百草味东北松子200gx2袋 坚果炒货零</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in奈津香 桂圆干500gx2袋莆田特产5A桂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in益达尊享护齿装草本40粒+冰柠40粒+西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in猴坑茶业2016新茶原产地手工太平猴魁特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in嘻鱿记 休闲零食 麻辣香辣奶香炭烧 5种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in荣业鸿福五分瘦腊肠 香港土特产香肠腊味</t>
+    <t>in2G7 中原G7三合一浓醇咖啡固体饮料1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in2百草味东北松子200gx2袋 坚果炒货零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in2奈津香 桂圆干500gx2袋莆田特产5A桂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in2益达尊享护齿装草本40粒+冰柠40粒+西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in2猴坑茶业2016新茶原产地手工太平猴魁特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in2嘻鱿记 休闲零食 麻辣香辣奶香炭烧 5种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in2荣业鸿福五分瘦腊肠 香港土特产香肠腊味</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F121E8FD-0DD1-40EA-99DD-1A707E0DC498}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -579,13 +579,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
